--- a/testSelenium/src/com/vincent/keyword/TestData2.xlsx
+++ b/testSelenium/src/com/vincent/keyword/TestData2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
   <si>
     <t>TestSuiteId</t>
     <phoneticPr fontId="2" type="noConversion"/>

--- a/testSelenium/src/com/vincent/keyword/TestData2.xlsx
+++ b/testSelenium/src/com/vincent/keyword/TestData2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="50">
   <si>
     <t>TestSuiteId</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -818,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
@@ -890,7 +893,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -913,7 +916,7 @@
         <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -936,7 +939,7 @@
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -959,7 +962,7 @@
         <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -978,7 +981,7 @@
         <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
